--- a/06-03-2023/data/output/xlsx/Entropy-Failure (GEQ)/Entropy Sympy = Ans.xlsx
+++ b/06-03-2023/data/output/xlsx/Entropy-Failure (GEQ)/Entropy Sympy = Ans.xlsx
@@ -143,10 +143,10 @@
                   <c:v>0.5</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.6</c:v>
+                  <c:v>0.6000000000000001</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.7</c:v>
+                  <c:v>0.7000000000000001</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>0.8</c:v>
@@ -403,10 +403,10 @@
                   <c:v>0.5</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.6</c:v>
+                  <c:v>0.6000000000000001</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.7</c:v>
+                  <c:v>0.7000000000000001</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>0.8</c:v>
@@ -687,10 +687,10 @@
                   <c:v>0.5</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.6</c:v>
+                  <c:v>0.6000000000000001</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.7</c:v>
+                  <c:v>0.7000000000000001</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>0.8</c:v>
@@ -1421,7 +1421,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="1">
-        <v>0.6</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="C8" s="1">
         <v>21</v>
@@ -1438,7 +1438,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="1">
-        <v>0.7</v>
+        <v>0.7000000000000001</v>
       </c>
       <c r="C9" s="1">
         <v>21</v>
@@ -1962,7 +1962,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="1">
-        <v>0.6</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="C8" s="1">
         <v>28</v>
@@ -1979,7 +1979,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="1">
-        <v>0.7</v>
+        <v>0.7000000000000001</v>
       </c>
       <c r="C9" s="1">
         <v>28</v>
@@ -2571,7 +2571,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="1">
-        <v>0.6</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="C8" s="1">
         <v>21</v>
@@ -2588,7 +2588,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="1">
-        <v>0.7</v>
+        <v>0.7000000000000001</v>
       </c>
       <c r="C9" s="1">
         <v>21</v>

--- a/06-03-2023/data/output/xlsx/Entropy-Failure (GEQ)/Entropy Sympy = Ans.xlsx
+++ b/06-03-2023/data/output/xlsx/Entropy-Failure (GEQ)/Entropy Sympy = Ans.xlsx
@@ -128,91 +128,76 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.1</c:v>
+                  <c:v>0.4689955935892811</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.2</c:v>
+                  <c:v>0.7219280948873621</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.3</c:v>
+                  <c:v>0.881290899230692</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.4</c:v>
+                  <c:v>0.921928094887362</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.5</c:v>
+                  <c:v>0.970950594454668</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.6000000000000001</c:v>
+                  <c:v>1.156779649447039</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.7000000000000001</c:v>
+                  <c:v>1.295461844238322</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.8</c:v>
+                  <c:v>1.356779649447039</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.9</c:v>
+                  <c:v>1.360964047443681</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1</c:v>
+                  <c:v>1.370950594454668</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1.1</c:v>
+                  <c:v>1.570950594454668</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1.2</c:v>
+                  <c:v>1.685475297227334</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1.3</c:v>
+                  <c:v>1.770950594454668</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1.4</c:v>
+                  <c:v>1.846439344671015</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1.5</c:v>
+                  <c:v>1.960964047443681</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1.6</c:v>
+                  <c:v>2.046439344671015</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1.7</c:v>
+                  <c:v>2.160964047443681</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1.8</c:v>
+                  <c:v>2.170950594454668</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1.9</c:v>
+                  <c:v>2.321928094887362</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>2</c:v>
+                  <c:v>2.446439344671015</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>2.1</c:v>
+                  <c:v>2.521928094887362</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>2.2</c:v>
+                  <c:v>2.646439344671015</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>2.3</c:v>
+                  <c:v>2.846439344671015</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>2.4</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>2.5</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>2.6</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>2.7</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>2.8</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>2.9</c:v>
+                  <c:v>2.921928094887362</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -230,87 +215,72 @@
                   <c:v>0.07868852459016394</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.07868852459016394</c:v>
+                  <c:v>0.1179775280898876</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.07868852459016394</c:v>
+                  <c:v>0.13125</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.07868852459016394</c:v>
+                  <c:v>0.1298701298701299</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.1179775280898876</c:v>
+                  <c:v>0.168141592920354</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.1179775280898876</c:v>
+                  <c:v>0.1559633027522936</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.1179775280898876</c:v>
+                  <c:v>0.15</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.13125</c:v>
+                  <c:v>0.1595744680851064</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.1298701298701299</c:v>
+                  <c:v>0.2096774193548387</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.1559633027522936</c:v>
+                  <c:v>0.2105263157894737</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.1559633027522936</c:v>
+                  <c:v>0.2142857142857143</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.15</c:v>
+                  <c:v>0.2244897959183673</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.1595744680851064</c:v>
+                  <c:v>0.2045454545454546</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.2142857142857143</c:v>
+                  <c:v>0.2222222222222222</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.2142857142857143</c:v>
+                  <c:v>0.2307692307692308</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.2244897959183673</c:v>
+                  <c:v>0.3529411764705883</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.2045454545454546</c:v>
+                  <c:v>0.3333333333333333</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.2222222222222222</c:v>
+                  <c:v>0.4166666666666667</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.2307692307692308</c:v>
+                  <c:v>0.3636363636363636</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.3529411764705883</c:v>
+                  <c:v>0.4444444444444444</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.3333333333333333</c:v>
+                  <c:v>0.375</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.3636363636363636</c:v>
+                  <c:v>0.6</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.3636363636363636</c:v>
+                  <c:v>0.5</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.4444444444444444</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>0.375</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>0.6</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>0.5</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>0.5</c:v>
-                </c:pt>
-                <c:pt idx="29">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -388,103 +358,100 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.1</c:v>
+                  <c:v>0.4689955935892811</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.2</c:v>
+                  <c:v>0.7219280948873621</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.3</c:v>
+                  <c:v>0.881290899230692</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.4</c:v>
+                  <c:v>0.921928094887362</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.5</c:v>
+                  <c:v>1.156779649447039</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.6000000000000001</c:v>
+                  <c:v>1.295461844238322</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.7000000000000001</c:v>
+                  <c:v>1.356779649447039</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.8</c:v>
+                  <c:v>1.485475297227334</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.9</c:v>
+                  <c:v>1.570950594454668</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1</c:v>
+                  <c:v>1.685475297227334</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1.1</c:v>
+                  <c:v>1.721928094887362</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1.2</c:v>
+                  <c:v>1.760964047443681</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1.3</c:v>
+                  <c:v>1.770950594454668</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1.4</c:v>
+                  <c:v>1.846439344671015</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1.5</c:v>
+                  <c:v>1.895461844238321</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1.6</c:v>
+                  <c:v>1.960964047443681</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1.7</c:v>
+                  <c:v>2.046439344671015</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1.8</c:v>
+                  <c:v>2.121928094887362</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1.9</c:v>
+                  <c:v>2.160964047443681</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>2</c:v>
+                  <c:v>2.170950594454668</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>2.1</c:v>
+                  <c:v>2.170950594454669</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>2.2</c:v>
+                  <c:v>2.246439344671015</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>2.3</c:v>
+                  <c:v>2.321928094887362</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>2.4</c:v>
+                  <c:v>2.370950594454668</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>2.5</c:v>
+                  <c:v>2.446439344671015</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>2.6</c:v>
+                  <c:v>2.521928094887362</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>2.7</c:v>
+                  <c:v>2.646439344671015</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>2.8</c:v>
+                  <c:v>2.721928094887362</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>2.9</c:v>
+                  <c:v>2.846439344671015</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>3</c:v>
+                  <c:v>2.921928094887362</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>3.1</c:v>
+                  <c:v>3.121928094887362</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>3.2</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>3.3</c:v>
+                  <c:v>3.321928094887362</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -502,64 +469,64 @@
                   <c:v>0.04516129032258064</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.04516129032258064</c:v>
+                  <c:v>0.04567699836867863</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.04516129032258064</c:v>
+                  <c:v>0.04582651391162029</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.04516129032258064</c:v>
+                  <c:v>0.04590163934426229</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.04567699836867863</c:v>
+                  <c:v>0.045</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.04567699836867863</c:v>
+                  <c:v>0.04568527918781726</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.04567699836867863</c:v>
+                  <c:v>0.04599659284497445</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.04582651391162029</c:v>
+                  <c:v>0.04577464788732395</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.04590163934426229</c:v>
+                  <c:v>0.04585537918871252</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.045</c:v>
+                  <c:v>0.0466786355475763</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.045</c:v>
+                  <c:v>0.04718693284936479</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.04568527918781726</c:v>
+                  <c:v>0.04744525547445255</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.04599659284497445</c:v>
+                  <c:v>0.04753199268738574</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.04577464788732395</c:v>
+                  <c:v>0.04651162790697674</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.04585537918871252</c:v>
+                  <c:v>0.04660194174757282</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.0466786355475763</c:v>
+                  <c:v>0.04669260700389105</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.04718693284936479</c:v>
+                  <c:v>0.04897959183673469</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.04651162790697674</c:v>
+                  <c:v>0.0498960498960499</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.04669260700389105</c:v>
+                  <c:v>0.04821802935010482</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.04897959183673469</c:v>
+                  <c:v>0.05168539325842696</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.0498960498960499</c:v>
+                  <c:v>0.05191873589164785</c:v>
                 </c:pt>
                 <c:pt idx="22">
                   <c:v>0.05203619909502263</c:v>
@@ -568,33 +535,30 @@
                   <c:v>0.05215419501133787</c:v>
                 </c:pt>
                 <c:pt idx="24">
+                  <c:v>0.05542168674698795</c:v>
+                </c:pt>
+                <c:pt idx="25">
                   <c:v>0.0541871921182266</c:v>
                 </c:pt>
-                <c:pt idx="25">
+                <c:pt idx="26">
                   <c:v>0.05569620253164557</c:v>
                 </c:pt>
-                <c:pt idx="26">
+                <c:pt idx="27">
                   <c:v>0.06197183098591549</c:v>
                 </c:pt>
-                <c:pt idx="27">
+                <c:pt idx="28">
                   <c:v>0.07213114754098361</c:v>
                 </c:pt>
-                <c:pt idx="28">
+                <c:pt idx="29">
                   <c:v>0.0738255033557047</c:v>
                 </c:pt>
-                <c:pt idx="29">
+                <c:pt idx="30">
                   <c:v>0.08695652173913043</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>0.09313725490196079</c:v>
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>0.09313725490196079</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>0.1160714285714286</c:v>
-                </c:pt>
-                <c:pt idx="33">
                   <c:v>0.1160714285714286</c:v>
                 </c:pt>
               </c:numCache>
@@ -672,88 +636,97 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.1</c:v>
+                  <c:v>0.4689955935892811</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.2</c:v>
+                  <c:v>0.7219280948873621</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.3</c:v>
+                  <c:v>0.881290899230692</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.4</c:v>
+                  <c:v>0.921928094887362</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.5</c:v>
+                  <c:v>0.970950594454668</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.6000000000000001</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.7000000000000001</c:v>
+                  <c:v>1.156779649447039</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.8</c:v>
+                  <c:v>1.295461844238322</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.9</c:v>
+                  <c:v>1.356779649447039</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1</c:v>
+                  <c:v>1.360964047443681</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1.1</c:v>
+                  <c:v>1.370950594454668</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1.2</c:v>
+                  <c:v>1.485475297227334</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1.3</c:v>
+                  <c:v>1.521928094887362</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1.4</c:v>
+                  <c:v>1.570950594454668</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1.5</c:v>
+                  <c:v>1.685475297227334</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1.6</c:v>
+                  <c:v>1.721928094887362</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1.7</c:v>
+                  <c:v>1.760964047443681</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1.8</c:v>
+                  <c:v>1.770950594454668</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1.9</c:v>
+                  <c:v>1.846439344671015</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>2</c:v>
+                  <c:v>1.895461844238321</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>2.1</c:v>
+                  <c:v>1.960964047443681</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>2.2</c:v>
+                  <c:v>2.046439344671015</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>2.3</c:v>
+                  <c:v>2.121928094887362</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>2.4</c:v>
+                  <c:v>2.170950594454668</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>2.5</c:v>
+                  <c:v>2.246439344671015</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>2.6</c:v>
+                  <c:v>2.321928094887362</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>2.7</c:v>
+                  <c:v>2.370950594454668</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>2.8</c:v>
+                  <c:v>2.446439344671015</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2.521928094887362</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>2.646439344671015</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>2.846439344671015</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -771,84 +744,93 @@
                   <c:v>0.0625</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.0625</c:v>
+                  <c:v>0.07473309608540925</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.0625</c:v>
+                  <c:v>0.08333333333333333</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.0625</c:v>
+                  <c:v>0.0966183574879227</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.07473309608540925</c:v>
+                  <c:v>0.1132075471698113</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.07473309608540925</c:v>
+                  <c:v>0.1240875912408759</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.07473309608540925</c:v>
+                  <c:v>0.1317829457364341</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.08333333333333333</c:v>
+                  <c:v>0.1509433962264151</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.0966183574879227</c:v>
+                  <c:v>0.1758241758241758</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.1240875912408759</c:v>
+                  <c:v>0.1948051948051948</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.1317829457364341</c:v>
+                  <c:v>0.208955223880597</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.1509433962264151</c:v>
+                  <c:v>0.2258064516129032</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.1758241758241758</c:v>
+                  <c:v>0.2203389830508475</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.2258064516129032</c:v>
+                  <c:v>0.2280701754385965</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.2203389830508475</c:v>
+                  <c:v>0.2682926829268293</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.2682926829268293</c:v>
+                  <c:v>0.25</c:v>
                 </c:pt>
                 <c:pt idx="17">
+                  <c:v>0.2727272727272727</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.2666666666666667</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.2692307692307692</c:v>
+                </c:pt>
+                <c:pt idx="20">
                   <c:v>0.25</c:v>
                 </c:pt>
-                <c:pt idx="18">
-                  <c:v>0.2692307692307692</c:v>
-                </c:pt>
-                <c:pt idx="19">
+                <c:pt idx="21">
                   <c:v>0.2608695652173913</c:v>
                 </c:pt>
-                <c:pt idx="20">
+                <c:pt idx="22">
                   <c:v>0.3157894736842105</c:v>
                 </c:pt>
-                <c:pt idx="21">
+                <c:pt idx="23">
                   <c:v>0.3333333333333333</c:v>
                 </c:pt>
-                <c:pt idx="22">
+                <c:pt idx="24">
+                  <c:v>0.3333333333333333</c:v>
+                </c:pt>
+                <c:pt idx="25">
                   <c:v>0.2857142857142857</c:v>
                 </c:pt>
-                <c:pt idx="23">
+                <c:pt idx="26">
                   <c:v>0.3076923076923077</c:v>
                 </c:pt>
-                <c:pt idx="24">
+                <c:pt idx="27">
+                  <c:v>0.4444444444444444</c:v>
+                </c:pt>
+                <c:pt idx="28">
                   <c:v>0.2857142857142857</c:v>
                 </c:pt>
-                <c:pt idx="25">
+                <c:pt idx="29">
                   <c:v>0.25</c:v>
                 </c:pt>
-                <c:pt idx="26">
+                <c:pt idx="30">
                   <c:v>0.3333333333333333</c:v>
                 </c:pt>
-                <c:pt idx="27">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="28">
+                <c:pt idx="31">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -1291,7 +1273,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H31"/>
+  <dimension ref="A1:H26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1336,7 +1318,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="1">
-        <v>0.1</v>
+        <v>0.4689955935892811</v>
       </c>
       <c r="C3" s="1">
         <v>24</v>
@@ -1353,16 +1335,16 @@
         <v>2</v>
       </c>
       <c r="B4" s="1">
-        <v>0.2</v>
+        <v>0.7219280948873621</v>
       </c>
       <c r="C4" s="1">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D4" s="1">
-        <v>305</v>
+        <v>178</v>
       </c>
       <c r="E4" s="1">
-        <v>0.07868852459016394</v>
+        <v>0.1179775280898876</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1370,16 +1352,16 @@
         <v>3</v>
       </c>
       <c r="B5" s="1">
-        <v>0.3</v>
+        <v>0.881290899230692</v>
       </c>
       <c r="C5" s="1">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D5" s="1">
-        <v>305</v>
+        <v>160</v>
       </c>
       <c r="E5" s="1">
-        <v>0.07868852459016394</v>
+        <v>0.13125</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -1387,16 +1369,16 @@
         <v>4</v>
       </c>
       <c r="B6" s="1">
-        <v>0.4</v>
+        <v>0.921928094887362</v>
       </c>
       <c r="C6" s="1">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="D6" s="1">
-        <v>305</v>
+        <v>154</v>
       </c>
       <c r="E6" s="1">
-        <v>0.07868852459016394</v>
+        <v>0.1298701298701299</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -1404,16 +1386,16 @@
         <v>5</v>
       </c>
       <c r="B7" s="1">
-        <v>0.5</v>
+        <v>0.970950594454668</v>
       </c>
       <c r="C7" s="1">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D7" s="1">
-        <v>178</v>
+        <v>113</v>
       </c>
       <c r="E7" s="1">
-        <v>0.1179775280898876</v>
+        <v>0.168141592920354</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -1421,16 +1403,16 @@
         <v>6</v>
       </c>
       <c r="B8" s="1">
-        <v>0.6000000000000001</v>
+        <v>1.156779649447039</v>
       </c>
       <c r="C8" s="1">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D8" s="1">
-        <v>178</v>
+        <v>109</v>
       </c>
       <c r="E8" s="1">
-        <v>0.1179775280898876</v>
+        <v>0.1559633027522936</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -1438,16 +1420,16 @@
         <v>7</v>
       </c>
       <c r="B9" s="1">
-        <v>0.7000000000000001</v>
+        <v>1.295461844238322</v>
       </c>
       <c r="C9" s="1">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="D9" s="1">
-        <v>178</v>
+        <v>100</v>
       </c>
       <c r="E9" s="1">
-        <v>0.1179775280898876</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -1455,16 +1437,16 @@
         <v>8</v>
       </c>
       <c r="B10" s="1">
-        <v>0.8</v>
+        <v>1.356779649447039</v>
       </c>
       <c r="C10" s="1">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="D10" s="1">
-        <v>160</v>
+        <v>94</v>
       </c>
       <c r="E10" s="1">
-        <v>0.13125</v>
+        <v>0.1595744680851064</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -1472,16 +1454,16 @@
         <v>9</v>
       </c>
       <c r="B11" s="1">
-        <v>0.9</v>
+        <v>1.360964047443681</v>
       </c>
       <c r="C11" s="1">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="D11" s="1">
-        <v>154</v>
+        <v>62</v>
       </c>
       <c r="E11" s="1">
-        <v>0.1298701298701299</v>
+        <v>0.2096774193548387</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -1489,16 +1471,16 @@
         <v>10</v>
       </c>
       <c r="B12" s="1">
-        <v>1</v>
+        <v>1.370950594454668</v>
       </c>
       <c r="C12" s="1">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="D12" s="1">
-        <v>109</v>
+        <v>57</v>
       </c>
       <c r="E12" s="1">
-        <v>0.1559633027522936</v>
+        <v>0.2105263157894737</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -1506,16 +1488,16 @@
         <v>11</v>
       </c>
       <c r="B13" s="1">
-        <v>1.1</v>
+        <v>1.570950594454668</v>
       </c>
       <c r="C13" s="1">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="D13" s="1">
-        <v>109</v>
+        <v>56</v>
       </c>
       <c r="E13" s="1">
-        <v>0.1559633027522936</v>
+        <v>0.2142857142857143</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -1523,16 +1505,16 @@
         <v>12</v>
       </c>
       <c r="B14" s="1">
-        <v>1.2</v>
+        <v>1.685475297227334</v>
       </c>
       <c r="C14" s="1">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D14" s="1">
-        <v>100</v>
+        <v>49</v>
       </c>
       <c r="E14" s="1">
-        <v>0.15</v>
+        <v>0.2244897959183673</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -1540,16 +1522,16 @@
         <v>13</v>
       </c>
       <c r="B15" s="1">
-        <v>1.3</v>
+        <v>1.770950594454668</v>
       </c>
       <c r="C15" s="1">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D15" s="1">
-        <v>94</v>
+        <v>44</v>
       </c>
       <c r="E15" s="1">
-        <v>0.1595744680851064</v>
+        <v>0.2045454545454546</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -1557,16 +1539,16 @@
         <v>14</v>
       </c>
       <c r="B16" s="1">
-        <v>1.4</v>
+        <v>1.846439344671015</v>
       </c>
       <c r="C16" s="1">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="D16" s="1">
-        <v>56</v>
+        <v>27</v>
       </c>
       <c r="E16" s="1">
-        <v>0.2142857142857143</v>
+        <v>0.2222222222222222</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -1574,16 +1556,16 @@
         <v>15</v>
       </c>
       <c r="B17" s="1">
-        <v>1.5</v>
+        <v>1.960964047443681</v>
       </c>
       <c r="C17" s="1">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="D17" s="1">
-        <v>56</v>
+        <v>26</v>
       </c>
       <c r="E17" s="1">
-        <v>0.2142857142857143</v>
+        <v>0.2307692307692308</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -1591,16 +1573,16 @@
         <v>16</v>
       </c>
       <c r="B18" s="1">
-        <v>1.6</v>
+        <v>2.046439344671015</v>
       </c>
       <c r="C18" s="1">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D18" s="1">
-        <v>49</v>
+        <v>17</v>
       </c>
       <c r="E18" s="1">
-        <v>0.2244897959183673</v>
+        <v>0.3529411764705883</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -1608,16 +1590,16 @@
         <v>17</v>
       </c>
       <c r="B19" s="1">
-        <v>1.7</v>
+        <v>2.160964047443681</v>
       </c>
       <c r="C19" s="1">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="D19" s="1">
-        <v>44</v>
+        <v>15</v>
       </c>
       <c r="E19" s="1">
-        <v>0.2045454545454546</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -1625,16 +1607,16 @@
         <v>18</v>
       </c>
       <c r="B20" s="1">
-        <v>1.8</v>
+        <v>2.170950594454668</v>
       </c>
       <c r="C20" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D20" s="1">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="E20" s="1">
-        <v>0.2222222222222222</v>
+        <v>0.4166666666666667</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -1642,16 +1624,16 @@
         <v>19</v>
       </c>
       <c r="B21" s="1">
-        <v>1.9</v>
+        <v>2.321928094887362</v>
       </c>
       <c r="C21" s="1">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D21" s="1">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="E21" s="1">
-        <v>0.2307692307692308</v>
+        <v>0.3636363636363636</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -1659,16 +1641,16 @@
         <v>20</v>
       </c>
       <c r="B22" s="1">
-        <v>2</v>
+        <v>2.446439344671015</v>
       </c>
       <c r="C22" s="1">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D22" s="1">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="E22" s="1">
-        <v>0.3529411764705883</v>
+        <v>0.4444444444444444</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -1676,16 +1658,16 @@
         <v>21</v>
       </c>
       <c r="B23" s="1">
-        <v>2.1</v>
+        <v>2.521928094887362</v>
       </c>
       <c r="C23" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D23" s="1">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="E23" s="1">
-        <v>0.3333333333333333</v>
+        <v>0.375</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -1693,16 +1675,16 @@
         <v>22</v>
       </c>
       <c r="B24" s="1">
-        <v>2.2</v>
+        <v>2.646439344671015</v>
       </c>
       <c r="C24" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D24" s="1">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="E24" s="1">
-        <v>0.3636363636363636</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -1710,16 +1692,16 @@
         <v>23</v>
       </c>
       <c r="B25" s="1">
-        <v>2.3</v>
+        <v>2.846439344671015</v>
       </c>
       <c r="C25" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D25" s="1">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="E25" s="1">
-        <v>0.3636363636363636</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -1727,100 +1709,15 @@
         <v>24</v>
       </c>
       <c r="B26" s="1">
-        <v>2.4</v>
+        <v>2.921928094887362</v>
       </c>
       <c r="C26" s="1">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D26" s="1">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="E26" s="1">
-        <v>0.4444444444444444</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5">
-      <c r="A27" s="2">
-        <v>25</v>
-      </c>
-      <c r="B27" s="1">
-        <v>2.5</v>
-      </c>
-      <c r="C27" s="1">
-        <v>3</v>
-      </c>
-      <c r="D27" s="1">
-        <v>8</v>
-      </c>
-      <c r="E27" s="1">
-        <v>0.375</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5">
-      <c r="A28" s="2">
-        <v>26</v>
-      </c>
-      <c r="B28" s="1">
-        <v>2.6</v>
-      </c>
-      <c r="C28" s="1">
-        <v>3</v>
-      </c>
-      <c r="D28" s="1">
-        <v>5</v>
-      </c>
-      <c r="E28" s="1">
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5">
-      <c r="A29" s="2">
-        <v>27</v>
-      </c>
-      <c r="B29" s="1">
-        <v>2.7</v>
-      </c>
-      <c r="C29" s="1">
-        <v>1</v>
-      </c>
-      <c r="D29" s="1">
-        <v>2</v>
-      </c>
-      <c r="E29" s="1">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5">
-      <c r="A30" s="2">
-        <v>28</v>
-      </c>
-      <c r="B30" s="1">
-        <v>2.8</v>
-      </c>
-      <c r="C30" s="1">
-        <v>1</v>
-      </c>
-      <c r="D30" s="1">
-        <v>2</v>
-      </c>
-      <c r="E30" s="1">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5">
-      <c r="A31" s="2">
-        <v>29</v>
-      </c>
-      <c r="B31" s="1">
-        <v>2.9</v>
-      </c>
-      <c r="C31" s="1">
-        <v>0</v>
-      </c>
-      <c r="D31" s="1">
-        <v>1</v>
-      </c>
-      <c r="E31" s="1">
         <v>0</v>
       </c>
     </row>
@@ -1832,7 +1729,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H35"/>
+  <dimension ref="A1:H34"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1877,7 +1774,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="1">
-        <v>0.1</v>
+        <v>0.4689955935892811</v>
       </c>
       <c r="C3" s="1">
         <v>28</v>
@@ -1894,16 +1791,16 @@
         <v>2</v>
       </c>
       <c r="B4" s="1">
-        <v>0.2</v>
+        <v>0.7219280948873621</v>
       </c>
       <c r="C4" s="1">
         <v>28</v>
       </c>
       <c r="D4" s="1">
-        <v>620</v>
+        <v>613</v>
       </c>
       <c r="E4" s="1">
-        <v>0.04516129032258064</v>
+        <v>0.04567699836867863</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1911,16 +1808,16 @@
         <v>3</v>
       </c>
       <c r="B5" s="1">
-        <v>0.3</v>
+        <v>0.881290899230692</v>
       </c>
       <c r="C5" s="1">
         <v>28</v>
       </c>
       <c r="D5" s="1">
-        <v>620</v>
+        <v>611</v>
       </c>
       <c r="E5" s="1">
-        <v>0.04516129032258064</v>
+        <v>0.04582651391162029</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -1928,16 +1825,16 @@
         <v>4</v>
       </c>
       <c r="B6" s="1">
-        <v>0.4</v>
+        <v>0.921928094887362</v>
       </c>
       <c r="C6" s="1">
         <v>28</v>
       </c>
       <c r="D6" s="1">
-        <v>620</v>
+        <v>610</v>
       </c>
       <c r="E6" s="1">
-        <v>0.04516129032258064</v>
+        <v>0.04590163934426229</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -1945,16 +1842,16 @@
         <v>5</v>
       </c>
       <c r="B7" s="1">
-        <v>0.5</v>
+        <v>1.156779649447039</v>
       </c>
       <c r="C7" s="1">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D7" s="1">
-        <v>613</v>
+        <v>600</v>
       </c>
       <c r="E7" s="1">
-        <v>0.04567699836867863</v>
+        <v>0.045</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -1962,16 +1859,16 @@
         <v>6</v>
       </c>
       <c r="B8" s="1">
-        <v>0.6000000000000001</v>
+        <v>1.295461844238322</v>
       </c>
       <c r="C8" s="1">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D8" s="1">
-        <v>613</v>
+        <v>591</v>
       </c>
       <c r="E8" s="1">
-        <v>0.04567699836867863</v>
+        <v>0.04568527918781726</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -1979,16 +1876,16 @@
         <v>7</v>
       </c>
       <c r="B9" s="1">
-        <v>0.7000000000000001</v>
+        <v>1.356779649447039</v>
       </c>
       <c r="C9" s="1">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D9" s="1">
-        <v>613</v>
+        <v>587</v>
       </c>
       <c r="E9" s="1">
-        <v>0.04567699836867863</v>
+        <v>0.04599659284497445</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -1996,16 +1893,16 @@
         <v>8</v>
       </c>
       <c r="B10" s="1">
-        <v>0.8</v>
+        <v>1.485475297227334</v>
       </c>
       <c r="C10" s="1">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D10" s="1">
-        <v>611</v>
+        <v>568</v>
       </c>
       <c r="E10" s="1">
-        <v>0.04582651391162029</v>
+        <v>0.04577464788732395</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -2013,16 +1910,16 @@
         <v>9</v>
       </c>
       <c r="B11" s="1">
-        <v>0.9</v>
+        <v>1.570950594454668</v>
       </c>
       <c r="C11" s="1">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D11" s="1">
-        <v>610</v>
+        <v>567</v>
       </c>
       <c r="E11" s="1">
-        <v>0.04590163934426229</v>
+        <v>0.04585537918871252</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -2030,16 +1927,16 @@
         <v>10</v>
       </c>
       <c r="B12" s="1">
-        <v>1</v>
+        <v>1.685475297227334</v>
       </c>
       <c r="C12" s="1">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D12" s="1">
-        <v>600</v>
+        <v>557</v>
       </c>
       <c r="E12" s="1">
-        <v>0.045</v>
+        <v>0.0466786355475763</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -2047,16 +1944,16 @@
         <v>11</v>
       </c>
       <c r="B13" s="1">
-        <v>1.1</v>
+        <v>1.721928094887362</v>
       </c>
       <c r="C13" s="1">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D13" s="1">
-        <v>600</v>
+        <v>551</v>
       </c>
       <c r="E13" s="1">
-        <v>0.045</v>
+        <v>0.04718693284936479</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -2064,16 +1961,16 @@
         <v>12</v>
       </c>
       <c r="B14" s="1">
-        <v>1.2</v>
+        <v>1.760964047443681</v>
       </c>
       <c r="C14" s="1">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D14" s="1">
-        <v>591</v>
+        <v>548</v>
       </c>
       <c r="E14" s="1">
-        <v>0.04568527918781726</v>
+        <v>0.04744525547445255</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -2081,16 +1978,16 @@
         <v>13</v>
       </c>
       <c r="B15" s="1">
-        <v>1.3</v>
+        <v>1.770950594454668</v>
       </c>
       <c r="C15" s="1">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D15" s="1">
-        <v>587</v>
+        <v>547</v>
       </c>
       <c r="E15" s="1">
-        <v>0.04599659284497445</v>
+        <v>0.04753199268738574</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -2098,16 +1995,16 @@
         <v>14</v>
       </c>
       <c r="B16" s="1">
-        <v>1.4</v>
+        <v>1.846439344671015</v>
       </c>
       <c r="C16" s="1">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D16" s="1">
-        <v>568</v>
+        <v>516</v>
       </c>
       <c r="E16" s="1">
-        <v>0.04577464788732395</v>
+        <v>0.04651162790697674</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -2115,16 +2012,16 @@
         <v>15</v>
       </c>
       <c r="B17" s="1">
-        <v>1.5</v>
+        <v>1.895461844238321</v>
       </c>
       <c r="C17" s="1">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D17" s="1">
-        <v>567</v>
+        <v>515</v>
       </c>
       <c r="E17" s="1">
-        <v>0.04585537918871252</v>
+        <v>0.04660194174757282</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -2132,16 +2029,16 @@
         <v>16</v>
       </c>
       <c r="B18" s="1">
-        <v>1.6</v>
+        <v>1.960964047443681</v>
       </c>
       <c r="C18" s="1">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D18" s="1">
-        <v>557</v>
+        <v>514</v>
       </c>
       <c r="E18" s="1">
-        <v>0.0466786355475763</v>
+        <v>0.04669260700389105</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -2149,16 +2046,16 @@
         <v>17</v>
       </c>
       <c r="B19" s="1">
-        <v>1.7</v>
+        <v>2.046439344671015</v>
       </c>
       <c r="C19" s="1">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D19" s="1">
-        <v>551</v>
+        <v>490</v>
       </c>
       <c r="E19" s="1">
-        <v>0.04718693284936479</v>
+        <v>0.04897959183673469</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -2166,16 +2063,16 @@
         <v>18</v>
       </c>
       <c r="B20" s="1">
-        <v>1.8</v>
+        <v>2.121928094887362</v>
       </c>
       <c r="C20" s="1">
         <v>24</v>
       </c>
       <c r="D20" s="1">
-        <v>516</v>
+        <v>481</v>
       </c>
       <c r="E20" s="1">
-        <v>0.04651162790697674</v>
+        <v>0.0498960498960499</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -2183,16 +2080,16 @@
         <v>19</v>
       </c>
       <c r="B21" s="1">
-        <v>1.9</v>
+        <v>2.160964047443681</v>
       </c>
       <c r="C21" s="1">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D21" s="1">
-        <v>514</v>
+        <v>477</v>
       </c>
       <c r="E21" s="1">
-        <v>0.04669260700389105</v>
+        <v>0.04821802935010482</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -2200,16 +2097,16 @@
         <v>20</v>
       </c>
       <c r="B22" s="1">
-        <v>2</v>
+        <v>2.170950594454668</v>
       </c>
       <c r="C22" s="1">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D22" s="1">
-        <v>490</v>
+        <v>445</v>
       </c>
       <c r="E22" s="1">
-        <v>0.04897959183673469</v>
+        <v>0.05168539325842696</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -2217,16 +2114,16 @@
         <v>21</v>
       </c>
       <c r="B23" s="1">
-        <v>2.1</v>
+        <v>2.170950594454669</v>
       </c>
       <c r="C23" s="1">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D23" s="1">
-        <v>481</v>
+        <v>443</v>
       </c>
       <c r="E23" s="1">
-        <v>0.0498960498960499</v>
+        <v>0.05191873589164785</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -2234,7 +2131,7 @@
         <v>22</v>
       </c>
       <c r="B24" s="1">
-        <v>2.2</v>
+        <v>2.246439344671015</v>
       </c>
       <c r="C24" s="1">
         <v>23</v>
@@ -2251,7 +2148,7 @@
         <v>23</v>
       </c>
       <c r="B25" s="1">
-        <v>2.3</v>
+        <v>2.321928094887362</v>
       </c>
       <c r="C25" s="1">
         <v>23</v>
@@ -2268,16 +2165,16 @@
         <v>24</v>
       </c>
       <c r="B26" s="1">
-        <v>2.4</v>
+        <v>2.370950594454668</v>
       </c>
       <c r="C26" s="1">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D26" s="1">
-        <v>406</v>
+        <v>415</v>
       </c>
       <c r="E26" s="1">
-        <v>0.0541871921182266</v>
+        <v>0.05542168674698795</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -2285,16 +2182,16 @@
         <v>25</v>
       </c>
       <c r="B27" s="1">
-        <v>2.5</v>
+        <v>2.446439344671015</v>
       </c>
       <c r="C27" s="1">
         <v>22</v>
       </c>
       <c r="D27" s="1">
-        <v>395</v>
+        <v>406</v>
       </c>
       <c r="E27" s="1">
-        <v>0.05569620253164557</v>
+        <v>0.0541871921182266</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -2302,16 +2199,16 @@
         <v>26</v>
       </c>
       <c r="B28" s="1">
-        <v>2.6</v>
+        <v>2.521928094887362</v>
       </c>
       <c r="C28" s="1">
         <v>22</v>
       </c>
       <c r="D28" s="1">
-        <v>355</v>
+        <v>395</v>
       </c>
       <c r="E28" s="1">
-        <v>0.06197183098591549</v>
+        <v>0.05569620253164557</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -2319,16 +2216,16 @@
         <v>27</v>
       </c>
       <c r="B29" s="1">
-        <v>2.7</v>
+        <v>2.646439344671015</v>
       </c>
       <c r="C29" s="1">
         <v>22</v>
       </c>
       <c r="D29" s="1">
-        <v>305</v>
+        <v>355</v>
       </c>
       <c r="E29" s="1">
-        <v>0.07213114754098361</v>
+        <v>0.06197183098591549</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -2336,16 +2233,16 @@
         <v>28</v>
       </c>
       <c r="B30" s="1">
-        <v>2.8</v>
+        <v>2.721928094887362</v>
       </c>
       <c r="C30" s="1">
         <v>22</v>
       </c>
       <c r="D30" s="1">
-        <v>298</v>
+        <v>305</v>
       </c>
       <c r="E30" s="1">
-        <v>0.0738255033557047</v>
+        <v>0.07213114754098361</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -2353,16 +2250,16 @@
         <v>29</v>
       </c>
       <c r="B31" s="1">
-        <v>2.9</v>
+        <v>2.846439344671015</v>
       </c>
       <c r="C31" s="1">
         <v>22</v>
       </c>
       <c r="D31" s="1">
-        <v>253</v>
+        <v>298</v>
       </c>
       <c r="E31" s="1">
-        <v>0.08695652173913043</v>
+        <v>0.0738255033557047</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -2370,16 +2267,16 @@
         <v>30</v>
       </c>
       <c r="B32" s="1">
-        <v>3</v>
+        <v>2.921928094887362</v>
       </c>
       <c r="C32" s="1">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="D32" s="1">
-        <v>204</v>
+        <v>253</v>
       </c>
       <c r="E32" s="1">
-        <v>0.09313725490196079</v>
+        <v>0.08695652173913043</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -2387,7 +2284,7 @@
         <v>31</v>
       </c>
       <c r="B33" s="1">
-        <v>3.1</v>
+        <v>3.121928094887362</v>
       </c>
       <c r="C33" s="1">
         <v>19</v>
@@ -2404,7 +2301,7 @@
         <v>32</v>
       </c>
       <c r="B34" s="1">
-        <v>3.2</v>
+        <v>3.321928094887362</v>
       </c>
       <c r="C34" s="1">
         <v>13</v>
@@ -2413,23 +2310,6 @@
         <v>112</v>
       </c>
       <c r="E34" s="1">
-        <v>0.1160714285714286</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5">
-      <c r="A35" s="2">
-        <v>33</v>
-      </c>
-      <c r="B35" s="1">
-        <v>3.3</v>
-      </c>
-      <c r="C35" s="1">
-        <v>13</v>
-      </c>
-      <c r="D35" s="1">
-        <v>112</v>
-      </c>
-      <c r="E35" s="1">
         <v>0.1160714285714286</v>
       </c>
     </row>
@@ -2441,7 +2321,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H30"/>
+  <dimension ref="A1:H33"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2486,7 +2366,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="1">
-        <v>0.1</v>
+        <v>0.4689955935892811</v>
       </c>
       <c r="C3" s="1">
         <v>27</v>
@@ -2503,16 +2383,16 @@
         <v>2</v>
       </c>
       <c r="B4" s="1">
-        <v>0.2</v>
+        <v>0.7219280948873621</v>
       </c>
       <c r="C4" s="1">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="D4" s="1">
-        <v>432</v>
+        <v>281</v>
       </c>
       <c r="E4" s="1">
-        <v>0.0625</v>
+        <v>0.07473309608540925</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -2520,16 +2400,16 @@
         <v>3</v>
       </c>
       <c r="B5" s="1">
-        <v>0.3</v>
+        <v>0.881290899230692</v>
       </c>
       <c r="C5" s="1">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="D5" s="1">
-        <v>432</v>
+        <v>240</v>
       </c>
       <c r="E5" s="1">
-        <v>0.0625</v>
+        <v>0.08333333333333333</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -2537,16 +2417,16 @@
         <v>4</v>
       </c>
       <c r="B6" s="1">
-        <v>0.4</v>
+        <v>0.921928094887362</v>
       </c>
       <c r="C6" s="1">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="D6" s="1">
-        <v>432</v>
+        <v>207</v>
       </c>
       <c r="E6" s="1">
-        <v>0.0625</v>
+        <v>0.0966183574879227</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -2554,16 +2434,16 @@
         <v>5</v>
       </c>
       <c r="B7" s="1">
-        <v>0.5</v>
+        <v>0.970950594454668</v>
       </c>
       <c r="C7" s="1">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D7" s="1">
-        <v>281</v>
+        <v>159</v>
       </c>
       <c r="E7" s="1">
-        <v>0.07473309608540925</v>
+        <v>0.1132075471698113</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -2571,16 +2451,16 @@
         <v>6</v>
       </c>
       <c r="B8" s="1">
-        <v>0.6000000000000001</v>
+        <v>1</v>
       </c>
       <c r="C8" s="1">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D8" s="1">
-        <v>281</v>
+        <v>137</v>
       </c>
       <c r="E8" s="1">
-        <v>0.07473309608540925</v>
+        <v>0.1240875912408759</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -2588,16 +2468,16 @@
         <v>7</v>
       </c>
       <c r="B9" s="1">
-        <v>0.7000000000000001</v>
+        <v>1.156779649447039</v>
       </c>
       <c r="C9" s="1">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D9" s="1">
-        <v>281</v>
+        <v>129</v>
       </c>
       <c r="E9" s="1">
-        <v>0.07473309608540925</v>
+        <v>0.1317829457364341</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -2605,16 +2485,16 @@
         <v>8</v>
       </c>
       <c r="B10" s="1">
-        <v>0.8</v>
+        <v>1.295461844238322</v>
       </c>
       <c r="C10" s="1">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D10" s="1">
-        <v>240</v>
+        <v>106</v>
       </c>
       <c r="E10" s="1">
-        <v>0.08333333333333333</v>
+        <v>0.1509433962264151</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -2622,16 +2502,16 @@
         <v>9</v>
       </c>
       <c r="B11" s="1">
-        <v>0.9</v>
+        <v>1.356779649447039</v>
       </c>
       <c r="C11" s="1">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D11" s="1">
-        <v>207</v>
+        <v>91</v>
       </c>
       <c r="E11" s="1">
-        <v>0.0966183574879227</v>
+        <v>0.1758241758241758</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -2639,16 +2519,16 @@
         <v>10</v>
       </c>
       <c r="B12" s="1">
-        <v>1</v>
+        <v>1.360964047443681</v>
       </c>
       <c r="C12" s="1">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D12" s="1">
-        <v>137</v>
+        <v>77</v>
       </c>
       <c r="E12" s="1">
-        <v>0.1240875912408759</v>
+        <v>0.1948051948051948</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -2656,16 +2536,16 @@
         <v>11</v>
       </c>
       <c r="B13" s="1">
-        <v>1.1</v>
+        <v>1.370950594454668</v>
       </c>
       <c r="C13" s="1">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D13" s="1">
-        <v>129</v>
+        <v>67</v>
       </c>
       <c r="E13" s="1">
-        <v>0.1317829457364341</v>
+        <v>0.208955223880597</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -2673,16 +2553,16 @@
         <v>12</v>
       </c>
       <c r="B14" s="1">
-        <v>1.2</v>
+        <v>1.485475297227334</v>
       </c>
       <c r="C14" s="1">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D14" s="1">
-        <v>106</v>
+        <v>62</v>
       </c>
       <c r="E14" s="1">
-        <v>0.1509433962264151</v>
+        <v>0.2258064516129032</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -2690,16 +2570,16 @@
         <v>13</v>
       </c>
       <c r="B15" s="1">
-        <v>1.3</v>
+        <v>1.521928094887362</v>
       </c>
       <c r="C15" s="1">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D15" s="1">
-        <v>91</v>
+        <v>59</v>
       </c>
       <c r="E15" s="1">
-        <v>0.1758241758241758</v>
+        <v>0.2203389830508475</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -2707,16 +2587,16 @@
         <v>14</v>
       </c>
       <c r="B16" s="1">
-        <v>1.4</v>
+        <v>1.570950594454668</v>
       </c>
       <c r="C16" s="1">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D16" s="1">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="E16" s="1">
-        <v>0.2258064516129032</v>
+        <v>0.2280701754385965</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -2724,16 +2604,16 @@
         <v>15</v>
       </c>
       <c r="B17" s="1">
-        <v>1.5</v>
+        <v>1.685475297227334</v>
       </c>
       <c r="C17" s="1">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D17" s="1">
-        <v>59</v>
+        <v>41</v>
       </c>
       <c r="E17" s="1">
-        <v>0.2203389830508475</v>
+        <v>0.2682926829268293</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -2741,16 +2621,16 @@
         <v>16</v>
       </c>
       <c r="B18" s="1">
-        <v>1.6</v>
+        <v>1.721928094887362</v>
       </c>
       <c r="C18" s="1">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D18" s="1">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="E18" s="1">
-        <v>0.2682926829268293</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -2758,16 +2638,16 @@
         <v>17</v>
       </c>
       <c r="B19" s="1">
-        <v>1.7</v>
+        <v>1.760964047443681</v>
       </c>
       <c r="C19" s="1">
         <v>9</v>
       </c>
       <c r="D19" s="1">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="E19" s="1">
-        <v>0.25</v>
+        <v>0.2727272727272727</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -2775,16 +2655,16 @@
         <v>18</v>
       </c>
       <c r="B20" s="1">
-        <v>1.8</v>
+        <v>1.770950594454668</v>
       </c>
       <c r="C20" s="1">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D20" s="1">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="E20" s="1">
-        <v>0.2692307692307692</v>
+        <v>0.2666666666666667</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -2792,16 +2672,16 @@
         <v>19</v>
       </c>
       <c r="B21" s="1">
-        <v>1.9</v>
+        <v>1.846439344671015</v>
       </c>
       <c r="C21" s="1">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D21" s="1">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E21" s="1">
-        <v>0.2608695652173913</v>
+        <v>0.2692307692307692</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -2809,16 +2689,16 @@
         <v>20</v>
       </c>
       <c r="B22" s="1">
-        <v>2</v>
+        <v>1.895461844238321</v>
       </c>
       <c r="C22" s="1">
         <v>6</v>
       </c>
       <c r="D22" s="1">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="E22" s="1">
-        <v>0.3157894736842105</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -2826,16 +2706,16 @@
         <v>21</v>
       </c>
       <c r="B23" s="1">
-        <v>2.1</v>
+        <v>1.960964047443681</v>
       </c>
       <c r="C23" s="1">
         <v>6</v>
       </c>
       <c r="D23" s="1">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="E23" s="1">
-        <v>0.3333333333333333</v>
+        <v>0.2608695652173913</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -2843,16 +2723,16 @@
         <v>22</v>
       </c>
       <c r="B24" s="1">
-        <v>2.2</v>
+        <v>2.046439344671015</v>
       </c>
       <c r="C24" s="1">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D24" s="1">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="E24" s="1">
-        <v>0.2857142857142857</v>
+        <v>0.3157894736842105</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -2860,16 +2740,16 @@
         <v>23</v>
       </c>
       <c r="B25" s="1">
-        <v>2.3</v>
+        <v>2.121928094887362</v>
       </c>
       <c r="C25" s="1">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D25" s="1">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="E25" s="1">
-        <v>0.3076923076923077</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -2877,16 +2757,16 @@
         <v>24</v>
       </c>
       <c r="B26" s="1">
-        <v>2.4</v>
+        <v>2.170950594454668</v>
       </c>
       <c r="C26" s="1">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D26" s="1">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="E26" s="1">
-        <v>0.2857142857142857</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -2894,16 +2774,16 @@
         <v>25</v>
       </c>
       <c r="B27" s="1">
-        <v>2.5</v>
+        <v>2.246439344671015</v>
       </c>
       <c r="C27" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D27" s="1">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="E27" s="1">
-        <v>0.25</v>
+        <v>0.2857142857142857</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -2911,16 +2791,16 @@
         <v>26</v>
       </c>
       <c r="B28" s="1">
-        <v>2.6</v>
+        <v>2.321928094887362</v>
       </c>
       <c r="C28" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D28" s="1">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="E28" s="1">
-        <v>0.3333333333333333</v>
+        <v>0.3076923076923077</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -2928,16 +2808,16 @@
         <v>27</v>
       </c>
       <c r="B29" s="1">
-        <v>2.7</v>
+        <v>2.370950594454668</v>
       </c>
       <c r="C29" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D29" s="1">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="E29" s="1">
-        <v>0</v>
+        <v>0.4444444444444444</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -2945,15 +2825,66 @@
         <v>28</v>
       </c>
       <c r="B30" s="1">
-        <v>2.8</v>
+        <v>2.446439344671015</v>
       </c>
       <c r="C30" s="1">
+        <v>2</v>
+      </c>
+      <c r="D30" s="1">
+        <v>7</v>
+      </c>
+      <c r="E30" s="1">
+        <v>0.2857142857142857</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="A31" s="2">
+        <v>29</v>
+      </c>
+      <c r="B31" s="1">
+        <v>2.521928094887362</v>
+      </c>
+      <c r="C31" s="1">
+        <v>1</v>
+      </c>
+      <c r="D31" s="1">
+        <v>4</v>
+      </c>
+      <c r="E31" s="1">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="A32" s="2">
+        <v>30</v>
+      </c>
+      <c r="B32" s="1">
+        <v>2.646439344671015</v>
+      </c>
+      <c r="C32" s="1">
+        <v>1</v>
+      </c>
+      <c r="D32" s="1">
+        <v>3</v>
+      </c>
+      <c r="E32" s="1">
+        <v>0.3333333333333333</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="A33" s="2">
+        <v>31</v>
+      </c>
+      <c r="B33" s="1">
+        <v>2.846439344671015</v>
+      </c>
+      <c r="C33" s="1">
         <v>0</v>
       </c>
-      <c r="D30" s="1">
+      <c r="D33" s="1">
         <v>1</v>
       </c>
-      <c r="E30" s="1">
+      <c r="E33" s="1">
         <v>0</v>
       </c>
     </row>
